--- a/Algemeen/Assetlist 2.0.xlsx
+++ b/Algemeen/Assetlist 2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="197">
   <si>
     <t>AssetList 2.0</t>
   </si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">Unwrap </t>
   </si>
   <si>
-    <t xml:space="preserve">Github </t>
-  </si>
-  <si>
     <t>Discription</t>
   </si>
   <si>
@@ -167,45 +164,21 @@
     <t>Used For :</t>
   </si>
   <si>
-    <t>Armory</t>
-  </si>
-  <si>
-    <t>Janitor</t>
-  </si>
-  <si>
     <t>Halls</t>
   </si>
   <si>
-    <t>Visiti g room</t>
-  </si>
-  <si>
-    <t>doc outpost</t>
-  </si>
-  <si>
-    <t>Staff rooms</t>
-  </si>
-  <si>
     <t>Bathrooms</t>
   </si>
   <si>
-    <t>Iso Cell</t>
-  </si>
-  <si>
     <t>Therapy</t>
   </si>
   <si>
     <t>Dining</t>
   </si>
   <si>
-    <t>Laundry</t>
-  </si>
-  <si>
     <t>office</t>
   </si>
   <si>
-    <t>Storage</t>
-  </si>
-  <si>
     <t>Fire Extinguisher</t>
   </si>
   <si>
@@ -428,9 +401,6 @@
     <t>F_DTB_01</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>F_OSS_01</t>
   </si>
   <si>
@@ -498,13 +468,160 @@
   </si>
   <si>
     <t>Electric Wires</t>
+  </si>
+  <si>
+    <t>Used for : Laundry Room</t>
+  </si>
+  <si>
+    <t>Old Cleaning Supplies</t>
+  </si>
+  <si>
+    <t>Old Washing Machine</t>
+  </si>
+  <si>
+    <t>Old Dryer</t>
+  </si>
+  <si>
+    <t>Dirty Clothes</t>
+  </si>
+  <si>
+    <t>Washing Bags</t>
+  </si>
+  <si>
+    <t>F_OCS_01</t>
+  </si>
+  <si>
+    <t>F_CB_01</t>
+  </si>
+  <si>
+    <t>F_To_01</t>
+  </si>
+  <si>
+    <t>F_Sh_01</t>
+  </si>
+  <si>
+    <t>F_EW_01</t>
+  </si>
+  <si>
+    <t>F_OWM_01</t>
+  </si>
+  <si>
+    <t>F_OD_01</t>
+  </si>
+  <si>
+    <t>F_DC_01</t>
+  </si>
+  <si>
+    <t>F_WB_01</t>
+  </si>
+  <si>
+    <t>used for : storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Lockers </t>
+  </si>
+  <si>
+    <t>Cutlery</t>
+  </si>
+  <si>
+    <t>Large Paperstack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Paperstack </t>
+  </si>
+  <si>
+    <t>Small Paperstack</t>
+  </si>
+  <si>
+    <t>F_LPS_01</t>
+  </si>
+  <si>
+    <t>F_MPS_01</t>
+  </si>
+  <si>
+    <t>F_Cu_01</t>
+  </si>
+  <si>
+    <t>F_Pa_01</t>
+  </si>
+  <si>
+    <t>used for : Janitor</t>
+  </si>
+  <si>
+    <t>F_Po_01</t>
+  </si>
+  <si>
+    <t>F_TB_01</t>
+  </si>
+  <si>
+    <t>F_W_01</t>
+  </si>
+  <si>
+    <t>F_OSS_001</t>
+  </si>
+  <si>
+    <t>F_BA_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_FC_01</t>
+  </si>
+  <si>
+    <t>F_SC_01</t>
+  </si>
+  <si>
+    <t>Used For : Iso Cell</t>
+  </si>
+  <si>
+    <t>Used for : Armory</t>
+  </si>
+  <si>
+    <t>Used for : Visiting Room/Entrance</t>
+  </si>
+  <si>
+    <t>Info Desk</t>
+  </si>
+  <si>
+    <t>Chairs</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>F_ID_01</t>
+  </si>
+  <si>
+    <t>Fluorescent Tube (TL)</t>
+  </si>
+  <si>
+    <t>F_FT_01</t>
+  </si>
+  <si>
+    <t>Animaties</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Used for : Therapy</t>
+  </si>
+  <si>
+    <t>Therapy Beds</t>
+  </si>
+  <si>
+    <t>G_SH</t>
+  </si>
+  <si>
+    <t>Shooting Particle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,19 +637,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -542,35 +662,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -611,32 +712,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -951,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,852 +1132,1440 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="K11" s="7"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="D23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="O42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="19"/>
+      <c r="O43" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="L44" s="19"/>
+      <c r="O44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+      <c r="L57" s="19"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="L58" s="19"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O33" t="s">
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="L59" s="19"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="L60" s="19"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="L61" s="19"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="L66" s="19"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="L67" s="19"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+      <c r="L68" s="19"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="L69" s="19"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+      <c r="L70" s="19"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="L71" s="19"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="L72" s="19"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="L73" s="19"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="L74" s="19"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="L75" s="19"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" t="s">
+        <v>120</v>
+      </c>
+      <c r="L76" s="19"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="L77" s="19"/>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>122</v>
+      </c>
+      <c r="L78" s="19"/>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L80" s="19"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L81" s="19"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L82" s="19"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="L83" s="19"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L84" s="19"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L85" s="19"/>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L86" s="19"/>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="O34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L88" s="19"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L89" s="19"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L90" s="19"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L91" s="19"/>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L92" s="19"/>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L94" s="19"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L95" s="19"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L96" s="19"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L97" s="19"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L98" s="19"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L99" s="19"/>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="27"/>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+      <c r="L102" s="19"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+      <c r="L103" s="19"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="L104" s="19"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105" t="s">
+        <v>165</v>
+      </c>
+      <c r="L105" s="19"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106" t="s">
+        <v>168</v>
+      </c>
+      <c r="L106" s="19"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" t="s">
+        <v>167</v>
+      </c>
+      <c r="L107" s="19"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" t="s">
+        <v>166</v>
+      </c>
+      <c r="L108" s="19"/>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L109" s="19"/>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L111" s="19"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L112" s="19"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L113" s="19"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L114" s="19"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L115" s="19"/>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L116" s="19"/>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="17"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>120</v>
+      </c>
+      <c r="L120" s="19"/>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L121" s="19"/>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="18"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" t="s">
+        <v>185</v>
+      </c>
+      <c r="L123" s="19"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" t="s">
+        <v>186</v>
+      </c>
+      <c r="L124" s="19"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" t="s">
+        <v>187</v>
+      </c>
+      <c r="L125" s="19"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+      <c r="L126" s="19"/>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" t="s">
+        <v>123</v>
+      </c>
+      <c r="L127" s="19"/>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>167</v>
+      </c>
+      <c r="O132" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C133" t="s">
+        <v>166</v>
+      </c>
+      <c r="O133" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="O37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="6"/>
-      <c r="O38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="O40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="O41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="O42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="O43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="O44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="C60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" t="s">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C79" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C86" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C87" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C88" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C89" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C90" s="14" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Algemeen/Assetlist 2.0.xlsx
+++ b/Algemeen/Assetlist 2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="324">
   <si>
     <t>AssetList 2.0</t>
   </si>
@@ -975,6 +975,27 @@
   </si>
   <si>
     <t>Sound</t>
+  </si>
+  <si>
+    <t>Operating Lamp</t>
+  </si>
+  <si>
+    <t>F_OL_001</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>H_KS</t>
+  </si>
+  <si>
+    <t>Keyspawn</t>
+  </si>
+  <si>
+    <t>H_INT</t>
+  </si>
+  <si>
+    <t>Intercom</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1154,11 +1175,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1192,6 +1243,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1506,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82:L173"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T120" activeCellId="1" sqref="G23 T120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +1923,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="9"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6"/>
@@ -1968,7 +2023,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="9"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6"/>
@@ -1977,7 +2032,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>248</v>
       </c>
@@ -1997,177 +2052,187 @@
       <c r="M25" s="7"/>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="23" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23" t="s">
+      <c r="I28" s="22"/>
+      <c r="J28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24" t="s">
+      <c r="K28" s="23"/>
+      <c r="L28" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M28" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N28" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="6"/>
+        <v>14</v>
+      </c>
       <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="6"/>
+        <v>16</v>
+      </c>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="23" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23" t="s">
+      <c r="G37" s="23"/>
+      <c r="H37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23" t="s">
+      <c r="I37" s="22"/>
+      <c r="J37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24" t="s">
+      <c r="K37" s="23"/>
+      <c r="L37" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M37" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N37" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F38" s="26"/>
       <c r="H38" s="26"/>
@@ -2177,12 +2242,12 @@
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" s="26"/>
       <c r="H39" s="26"/>
@@ -2192,42 +2257,27 @@
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="M40" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41" s="26"/>
       <c r="H41" s="26"/>
@@ -2237,22 +2287,42 @@
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>193</v>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M42" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="F43" s="26"/>
       <c r="H43" s="26"/>
@@ -2262,283 +2332,291 @@
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="23" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23" t="s">
+      <c r="G46" s="23"/>
+      <c r="H46" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23" t="s">
+      <c r="I46" s="22"/>
+      <c r="J46" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24" t="s">
+      <c r="K46" s="23"/>
+      <c r="L46" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="M46" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N46" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="J47" s="26"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="26" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>59</v>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="H52" s="26"/>
+        <v>196</v>
+      </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="26"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+    <row r="53" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>61</v>
+      <c r="A54" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F54" s="26"/>
       <c r="H54" s="26"/>
+      <c r="J54" s="26"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F55" s="26"/>
       <c r="H55" s="26"/>
+      <c r="J55" s="26"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>63</v>
+      <c r="A56" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="J56" s="26"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>53</v>
       </c>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" t="s">
-        <v>54</v>
-      </c>
-      <c r="H58" s="26"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="26"/>
       <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="D62" s="1"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>56</v>
       </c>
-      <c r="L61" s="6"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="L63" s="6"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>57</v>
       </c>
-      <c r="H62" s="26"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="F64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -2552,11 +2630,11 @@
     </row>
     <row r="66" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -2568,10 +2646,14 @@
       <c r="K66" s="9"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
+    <row r="67" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -2582,976 +2664,1016 @@
       <c r="K67" s="9"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4" t="s">
+    <row r="68" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="23" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23" t="s">
+      <c r="G70" s="23"/>
+      <c r="H70" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="23" t="s">
+      <c r="I70" s="22"/>
+      <c r="J70" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="25" t="s">
+      <c r="K70" s="23"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N68" s="19" t="s">
+      <c r="N70" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" t="s">
-        <v>70</v>
-      </c>
-      <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>71</v>
-      </c>
-      <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
-      </c>
-      <c r="H74" s="27"/>
+        <v>73</v>
+      </c>
       <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
-      </c>
-      <c r="H75" s="27"/>
+        <v>74</v>
+      </c>
       <c r="L75" s="6"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H76" s="27"/>
       <c r="L76" s="6"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="27"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>203</v>
       </c>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>205</v>
       </c>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4" t="s">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="23" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23" t="s">
+      <c r="G81" s="23"/>
+      <c r="H81" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="22"/>
-      <c r="J79" s="23" t="s">
+      <c r="I81" s="22"/>
+      <c r="J81" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K79" s="23"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="25" t="s">
+      <c r="K81" s="23"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N79" s="19" t="s">
+      <c r="N81" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H80" s="26"/>
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" t="s">
-        <v>87</v>
-      </c>
-      <c r="L81" s="6"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="J82" s="26"/>
       <c r="L82" s="6"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="J83" s="26"/>
       <c r="L83" s="6"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L84" s="6"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="J85" s="26"/>
       <c r="L85" s="6"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L86" s="6"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
-      </c>
-      <c r="H87" s="26"/>
+        <v>91</v>
+      </c>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L88" s="6"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="J89" s="26"/>
       <c r="L89" s="6"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="J90" s="26"/>
       <c r="L90" s="6"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L91" s="6"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="H92" s="34"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>98</v>
       </c>
-      <c r="H92" s="27"/>
-      <c r="L92" s="6"/>
-    </row>
-    <row r="93" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="F94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="10" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="7"/>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="4" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="7"/>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="23" t="s">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23" t="s">
+      <c r="G96" s="23"/>
+      <c r="H96" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="22"/>
-      <c r="J94" s="23" t="s">
+      <c r="I96" s="22"/>
+      <c r="J96" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="23"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="25" t="s">
+      <c r="K96" s="23"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N94" s="19" t="s">
+      <c r="N96" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C95" t="s">
-        <v>108</v>
-      </c>
-      <c r="H95" s="27"/>
-      <c r="L95" s="6"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C96" t="s">
-        <v>109</v>
-      </c>
-      <c r="L96" s="6"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>56</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="J97" s="26"/>
       <c r="L97" s="6"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L98" s="6"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="L99" s="6"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
-      </c>
-      <c r="H100" s="27"/>
+        <v>110</v>
+      </c>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F102" s="26"/>
       <c r="H102" s="26"/>
+      <c r="J102" s="26"/>
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="J103" s="26"/>
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H104" s="26"/>
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>118</v>
       </c>
-      <c r="L107" s="6"/>
-    </row>
-    <row r="108" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" t="s">
-        <v>119</v>
-      </c>
-      <c r="L108" s="6"/>
-    </row>
-    <row r="109" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I109" s="22"/>
-      <c r="J109" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K109" s="23"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N109" s="19" t="s">
-        <v>189</v>
-      </c>
+      <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H110" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>152</v>
-      </c>
+    <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111" s="7"/>
       <c r="C111" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L111" s="6"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L112" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="29"/>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I112" s="32"/>
+      <c r="J112" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K112" s="31"/>
+      <c r="L112" s="33"/>
+      <c r="M112" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N112" s="17" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>133</v>
+        <v>176</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H113" s="27" t="s">
+        <v>319</v>
       </c>
       <c r="L113" s="6"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L114" s="6"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H115" s="26"/>
+        <v>117</v>
+      </c>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I117" s="22"/>
-      <c r="J117" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K117" s="23"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N117" s="19" t="s">
-        <v>189</v>
-      </c>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L117" s="6"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H118" s="26"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H120" s="26"/>
-      <c r="L120" s="6"/>
+    <row r="120" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="23"/>
+      <c r="H120" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" s="22"/>
+      <c r="J120" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120" s="23"/>
+      <c r="L120" s="30"/>
+      <c r="M120" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N120" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H121" s="26"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I123" s="22"/>
-      <c r="J123" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K123" s="23"/>
-      <c r="L123" s="30"/>
-      <c r="M123" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N123" s="19" t="s">
-        <v>189</v>
-      </c>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H123" s="26"/>
+      <c r="L123" s="6"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L126" s="6"/>
+    <row r="126" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I126" s="22"/>
+      <c r="J126" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K126" s="23"/>
+      <c r="L126" s="30"/>
+      <c r="M126" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N126" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L127" s="6"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="L128" s="6"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L129" s="6"/>
     </row>
-    <row r="130" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B130" s="9"/>
+        <v>158</v>
+      </c>
       <c r="C130" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="7"/>
-    </row>
-    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I131" s="22"/>
-      <c r="J131" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K131" s="23"/>
-      <c r="L131" s="30"/>
-      <c r="M131" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N131" s="19" t="s">
-        <v>189</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="L130" s="6"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L131" s="6"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C132" t="s">
-        <v>98</v>
-      </c>
-      <c r="H132" s="27"/>
+        <v>159</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L132" s="6"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C133" t="s">
-        <v>161</v>
-      </c>
-      <c r="H133" s="26"/>
-      <c r="L133" s="6"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" t="s">
-        <v>110</v>
-      </c>
-      <c r="L134" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="7"/>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I134" s="22"/>
+      <c r="J134" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K134" s="23"/>
+      <c r="L134" s="30"/>
+      <c r="M134" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N134" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H135" s="27"/>
       <c r="L135" s="6"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>169</v>
+      <c r="A136" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C136" t="s">
-        <v>165</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H136" s="26"/>
       <c r="L136" s="6"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C137" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" t="s">
+        <v>162</v>
+      </c>
+      <c r="L138" s="6"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" t="s">
+        <v>165</v>
+      </c>
+      <c r="L139" s="6"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" t="s">
+        <v>164</v>
+      </c>
+      <c r="L140" s="6"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C141" t="s">
         <v>163</v>
       </c>
-      <c r="L138" s="6"/>
-    </row>
-    <row r="139" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+      <c r="L141" s="6"/>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L139" s="6"/>
-    </row>
-    <row r="140" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="11"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="4" t="s">
+      <c r="L142" s="6"/>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="11"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="23" t="s">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23" t="s">
+      <c r="G143" s="23"/>
+      <c r="H143" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I140" s="22"/>
-      <c r="J140" s="23" t="s">
+      <c r="I143" s="22"/>
+      <c r="J143" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K140" s="23"/>
-      <c r="L140" s="30"/>
-      <c r="M140" s="25" t="s">
+      <c r="K143" s="23"/>
+      <c r="L143" s="30"/>
+      <c r="M143" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N140" s="19" t="s">
+      <c r="N143" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C144" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="L141" s="6"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L142" s="6"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L143" s="6"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="L144" s="6"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L145" s="6"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L146" s="6"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L147" s="6"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C148" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="L145" s="6"/>
-    </row>
-    <row r="146" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+      <c r="L148" s="6"/>
+    </row>
+    <row r="149" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L146" s="6"/>
-    </row>
-    <row r="147" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4" t="s">
+      <c r="L149" s="6"/>
+    </row>
+    <row r="150" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="23" t="s">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23" t="s">
+      <c r="G150" s="23"/>
+      <c r="H150" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I147" s="22"/>
-      <c r="J147" s="23" t="s">
+      <c r="I150" s="22"/>
+      <c r="J150" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K147" s="23"/>
-      <c r="L147" s="30"/>
-      <c r="M147" s="25" t="s">
+      <c r="K150" s="23"/>
+      <c r="L150" s="30"/>
+      <c r="M150" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N147" s="19" t="s">
+      <c r="N150" s="19" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L148" s="6"/>
-    </row>
-    <row r="149" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="15"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I149" s="22"/>
-      <c r="J149" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K149" s="23"/>
-      <c r="L149" s="30"/>
-      <c r="M149" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N149" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
-        <v>117</v>
-      </c>
-      <c r="L150" s="6"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L151" s="6"/>
     </row>
     <row r="152" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="16"/>
+      <c r="A152" s="15"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="14" t="s">
-        <v>181</v>
+      <c r="C152" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -3576,264 +3698,264 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="C153" t="s">
-        <v>182</v>
-      </c>
-      <c r="H153" s="26"/>
+        <v>117</v>
+      </c>
       <c r="L153" s="6"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" t="s">
-        <v>183</v>
-      </c>
+    <row r="154" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L154" s="6"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C155" t="s">
-        <v>184</v>
-      </c>
-      <c r="H155" s="26"/>
-      <c r="L155" s="6"/>
+    <row r="155" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="16"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I155" s="22"/>
+      <c r="J155" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K155" s="23"/>
+      <c r="L155" s="30"/>
+      <c r="M155" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N155" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="C156" t="s">
-        <v>90</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="J156" s="26"/>
       <c r="L156" s="6"/>
     </row>
-    <row r="157" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="C157" t="s">
-        <v>120</v>
-      </c>
-      <c r="H157" s="27"/>
+        <v>183</v>
+      </c>
+      <c r="F157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="J157" s="26"/>
       <c r="L157" s="6"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I158" s="22"/>
-      <c r="J158" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K158" s="23"/>
-      <c r="L158" s="30"/>
-      <c r="M158" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N158" s="19" t="s">
-        <v>189</v>
-      </c>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C158" t="s">
+        <v>184</v>
+      </c>
+      <c r="F158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="L158" s="6"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="10" t="s">
-        <v>186</v>
+        <v>84</v>
+      </c>
+      <c r="C159" t="s">
+        <v>90</v>
       </c>
       <c r="L159" s="6"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H160" s="27"/>
+        <v>176</v>
+      </c>
+      <c r="C160" t="s">
+        <v>120</v>
+      </c>
+      <c r="H160" s="7"/>
       <c r="L160" s="6"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C161" t="s">
-        <v>165</v>
-      </c>
-      <c r="L161" s="6"/>
+    <row r="161" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="11"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I161" s="22"/>
+      <c r="J161" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K161" s="23"/>
+      <c r="L161" s="30"/>
+      <c r="M161" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N161" s="19" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C162" t="s">
-        <v>164</v>
+        <v>187</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="L162" s="6"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H163" s="27"/>
+      <c r="L163" s="6"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164" t="s">
+        <v>165</v>
+      </c>
+      <c r="L164" s="6"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" t="s">
+        <v>164</v>
+      </c>
+      <c r="L165" s="6"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C166" t="s">
         <v>163</v>
       </c>
-      <c r="L163" s="6"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
+      <c r="L166" s="6"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C167" t="s">
         <v>120</v>
       </c>
-      <c r="H164" s="27"/>
-      <c r="L164" s="6"/>
-    </row>
-    <row r="165" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+      <c r="H167" s="27"/>
+      <c r="L167" s="6"/>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C168" t="s">
         <v>207</v>
       </c>
-      <c r="L165" s="6"/>
-    </row>
-    <row r="166" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="4" t="s">
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="23" t="s">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G166" s="23"/>
-      <c r="H166" s="23" t="s">
+      <c r="G169" s="23"/>
+      <c r="H169" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I166" s="22"/>
-      <c r="J166" s="23" t="s">
+      <c r="I169" s="22"/>
+      <c r="J169" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K166" s="23"/>
-      <c r="L166" s="30"/>
-      <c r="M166" s="25" t="s">
+      <c r="K169" s="23"/>
+      <c r="L169" s="30"/>
+      <c r="M169" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="N166" s="19" t="s">
+      <c r="N169" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C170" t="s">
         <v>252</v>
       </c>
-      <c r="L167" s="6"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C171" t="s">
         <v>253</v>
       </c>
-      <c r="L168" s="6"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L169" s="6"/>
-    </row>
-    <row r="170" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L170" s="6"/>
-    </row>
-    <row r="171" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G171" s="23"/>
-      <c r="H171" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I171" s="22"/>
-      <c r="J171" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K171" s="23"/>
-      <c r="L171" s="30"/>
-      <c r="M171" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N171" s="19" t="s">
-        <v>189</v>
-      </c>
+      <c r="L171" s="6"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>258</v>
-      </c>
-      <c r="C172" t="s">
-        <v>254</v>
-      </c>
-      <c r="H172" s="26"/>
       <c r="L172" s="6"/>
     </row>
     <row r="173" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>259</v>
-      </c>
-      <c r="C173" t="s">
-        <v>255</v>
-      </c>
-      <c r="H173" s="7"/>
       <c r="L173" s="6"/>
     </row>
     <row r="174" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="23" t="s">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
+      <c r="H174" s="23" t="s">
+        <v>3</v>
+      </c>
       <c r="I174" s="22"/>
-      <c r="J174" s="23"/>
+      <c r="J174" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="L174" s="30"/>
       <c r="M174" s="25" t="s">
         <v>312</v>
       </c>
@@ -3843,217 +3965,261 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>258</v>
+      </c>
+      <c r="C175" t="s">
+        <v>254</v>
+      </c>
+      <c r="H175" s="26"/>
+      <c r="L175" s="6"/>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>259</v>
+      </c>
+      <c r="C176" t="s">
+        <v>255</v>
+      </c>
+      <c r="H176" s="7"/>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="22"/>
+      <c r="J177" s="23"/>
+      <c r="K177" s="23"/>
+      <c r="L177" s="24"/>
+      <c r="M177" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N177" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>285</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C178" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>286</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C179" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>287</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C180" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>288</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C181" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>289</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C182" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>290</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C183" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>290</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C184" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>291</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C185" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>292</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C186" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>293</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C187" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>294</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C188" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>296</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>297</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C190" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>298</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C191" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>299</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C192" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>300</v>
-      </c>
-      <c r="C190" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>301</v>
-      </c>
-      <c r="C191" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>302</v>
-      </c>
-      <c r="C192" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C193" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C194" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C195" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C196" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C197" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C198" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C199" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C200" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>308</v>
+      </c>
+      <c r="C201" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>309</v>
+      </c>
+      <c r="C202" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>310</v>
+      </c>
+      <c r="C203" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>311</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C204" t="s">
         <v>226</v>
       </c>
     </row>

--- a/Algemeen/Assetlist 2.0.xlsx
+++ b/Algemeen/Assetlist 2.0.xlsx
@@ -1563,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T120" activeCellId="1" sqref="G23 T120"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3554,6 +3554,7 @@
       <c r="C142" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="H142" s="26"/>
       <c r="L142" s="6"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3825,6 +3826,7 @@
       <c r="C162" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="H162" s="26"/>
       <c r="L162" s="6"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -3834,7 +3836,7 @@
       <c r="C163" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H163" s="27"/>
+      <c r="H163" s="26"/>
       <c r="L163" s="6"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -3918,6 +3920,7 @@
       <c r="C170" t="s">
         <v>252</v>
       </c>
+      <c r="H170" s="27"/>
       <c r="L170" s="6"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -3927,6 +3930,7 @@
       <c r="C171" t="s">
         <v>253</v>
       </c>
+      <c r="H171" s="27"/>
       <c r="L171" s="6"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -3980,7 +3984,7 @@
       <c r="C176" t="s">
         <v>255</v>
       </c>
-      <c r="H176" s="7"/>
+      <c r="H176" s="26"/>
       <c r="L176" s="6"/>
     </row>
     <row r="177" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Algemeen/Assetlist 2.0.xlsx
+++ b/Algemeen/Assetlist 2.0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="325">
   <si>
     <t>AssetList 2.0</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>Intercom</t>
+  </si>
+  <si>
+    <t>(Damage)</t>
   </si>
 </sst>
 </file>
@@ -1563,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,14 +1684,14 @@
       <c r="D7" s="20"/>
       <c r="E7" s="9"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
       <c r="K7" s="29"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="20"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1863,13 +1866,13 @@
       <c r="D16" s="20"/>
       <c r="E16" s="9"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
       <c r="K16" s="29"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1929,8 +1932,8 @@
       <c r="J19" s="6"/>
       <c r="K19" s="29"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="20"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1960,7 +1963,9 @@
       <c r="C21" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>324</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
@@ -2003,14 +2008,14 @@
       <c r="D23" s="20"/>
       <c r="E23" s="9"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="6"/>
       <c r="K23" s="29"/>
       <c r="L23" s="6"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="20"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -2029,7 +2034,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="29"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2043,14 +2048,14 @@
       <c r="D25" s="20"/>
       <c r="E25" s="9"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6"/>
       <c r="K25" s="29"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="20"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -2069,8 +2074,8 @@
       <c r="J26" s="6"/>
       <c r="K26" s="29"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="20"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2083,14 +2088,14 @@
       <c r="D27" s="20"/>
       <c r="E27" s="9"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
       <c r="J27" s="6"/>
       <c r="K27" s="29"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="20"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>

--- a/Algemeen/Assetlist 2.0.xlsx
+++ b/Algemeen/Assetlist 2.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1031,7 +1031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,6 +1053,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1250,6 +1262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1566,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176:J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,6 +2561,9 @@
       <c r="C58" t="s">
         <v>52</v>
       </c>
+      <c r="F58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="J58" s="35"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
@@ -2557,6 +2574,9 @@
       <c r="C59" t="s">
         <v>53</v>
       </c>
+      <c r="F59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="J59" s="35"/>
       <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -2591,6 +2611,9 @@
         <v>58</v>
       </c>
       <c r="D62" s="1"/>
+      <c r="F62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="J62" s="26"/>
       <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -2600,6 +2623,9 @@
       <c r="C63" t="s">
         <v>56</v>
       </c>
+      <c r="F63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="J63" s="26"/>
       <c r="L63" s="6"/>
       <c r="O63" s="1"/>
     </row>
@@ -2625,11 +2651,11 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="F65" s="26"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="26"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="J65" s="26"/>
       <c r="K65" s="9"/>
       <c r="L65" s="7"/>
     </row>
@@ -2736,6 +2762,9 @@
       <c r="C71" t="s">
         <v>70</v>
       </c>
+      <c r="F71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="J71" s="26"/>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -2745,6 +2774,9 @@
       <c r="C72" t="s">
         <v>71</v>
       </c>
+      <c r="F72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="J72" s="26"/>
       <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -2754,6 +2786,9 @@
       <c r="C73" t="s">
         <v>72</v>
       </c>
+      <c r="F73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="J73" s="26"/>
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -2763,6 +2798,9 @@
       <c r="C74" t="s">
         <v>73</v>
       </c>
+      <c r="F74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="J74" s="26"/>
       <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -2772,6 +2810,9 @@
       <c r="C75" t="s">
         <v>74</v>
       </c>
+      <c r="F75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="J75" s="26"/>
       <c r="L75" s="6"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -2781,7 +2822,9 @@
       <c r="C76" t="s">
         <v>75</v>
       </c>
-      <c r="H76" s="27"/>
+      <c r="F76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="J76" s="26"/>
       <c r="L76" s="6"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -2791,7 +2834,9 @@
       <c r="C77" t="s">
         <v>76</v>
       </c>
-      <c r="H77" s="27"/>
+      <c r="F77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="J77" s="26"/>
       <c r="L77" s="6"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -2801,6 +2846,9 @@
       <c r="C78" t="s">
         <v>77</v>
       </c>
+      <c r="F78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="J78" s="26"/>
       <c r="L78" s="6"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -2880,6 +2928,9 @@
       <c r="C84" t="s">
         <v>88</v>
       </c>
+      <c r="F84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="J84" s="26"/>
       <c r="L84" s="6"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -2910,6 +2961,9 @@
       <c r="C87" t="s">
         <v>91</v>
       </c>
+      <c r="F87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="J87" s="26"/>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -2952,6 +3006,7 @@
       <c r="C91" t="s">
         <v>95</v>
       </c>
+      <c r="H91" s="26"/>
       <c r="L91" s="6"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -3059,6 +3114,9 @@
       <c r="C99" t="s">
         <v>56</v>
       </c>
+      <c r="F99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="J99" s="26"/>
       <c r="L99" s="6"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -3068,6 +3126,9 @@
       <c r="C100" t="s">
         <v>110</v>
       </c>
+      <c r="F100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="J100" s="26"/>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -3077,6 +3138,9 @@
       <c r="C101" t="s">
         <v>94</v>
       </c>
+      <c r="F101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="J101" s="26"/>
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -3110,7 +3174,9 @@
       <c r="C104" t="s">
         <v>113</v>
       </c>
+      <c r="F104" s="26"/>
       <c r="H104" s="26"/>
+      <c r="J104" s="26"/>
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -3120,6 +3186,9 @@
       <c r="C105" t="s">
         <v>114</v>
       </c>
+      <c r="F105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="J105" s="26"/>
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -3138,6 +3207,9 @@
       <c r="C107" t="s">
         <v>116</v>
       </c>
+      <c r="F107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="J107" s="26"/>
       <c r="L107" s="6"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -3147,6 +3219,9 @@
       <c r="C108" t="s">
         <v>117</v>
       </c>
+      <c r="F108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="J108" s="26"/>
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -3156,6 +3231,9 @@
       <c r="C109" t="s">
         <v>118</v>
       </c>
+      <c r="F109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="J109" s="26"/>
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -3165,6 +3243,9 @@
       <c r="C110" t="s">
         <v>119</v>
       </c>
+      <c r="F110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="J110" s="26"/>
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3177,11 +3258,9 @@
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="29"/>
+      <c r="F111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="J111" s="26"/>
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
       <c r="M111" s="7"/>
@@ -3234,6 +3313,9 @@
       <c r="C114" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="F114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="J114" s="26"/>
       <c r="L114" s="6"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -3243,6 +3325,9 @@
       <c r="C115" s="8" t="s">
         <v>117</v>
       </c>
+      <c r="F115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="J115" s="26"/>
       <c r="L115" s="6"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -3252,6 +3337,9 @@
       <c r="C116" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="F116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="J116" s="26"/>
       <c r="L116" s="6"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -3280,6 +3368,9 @@
       <c r="C119" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="F119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="J119" s="26"/>
       <c r="L119" s="6"/>
     </row>
     <row r="120" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3319,7 +3410,9 @@
       <c r="C121" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="F121" s="26"/>
       <c r="H121" s="26"/>
+      <c r="J121" s="26"/>
       <c r="L121" s="6"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -3329,6 +3422,7 @@
       <c r="C122" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="H122" s="26"/>
       <c r="L122" s="6"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -3338,7 +3432,9 @@
       <c r="C123" s="8" t="s">
         <v>142</v>
       </c>
+      <c r="F123" s="26"/>
       <c r="H123" s="26"/>
+      <c r="J123" s="26"/>
       <c r="L123" s="6"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -3348,6 +3444,9 @@
       <c r="C124" s="8" t="s">
         <v>143</v>
       </c>
+      <c r="F124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="J124" s="26"/>
       <c r="L124" s="6"/>
     </row>
     <row r="125" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3430,6 +3529,9 @@
       <c r="C131" s="8" t="s">
         <v>119</v>
       </c>
+      <c r="F131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="J131" s="26"/>
       <c r="L131" s="6"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -3494,7 +3596,9 @@
       <c r="C135" t="s">
         <v>98</v>
       </c>
-      <c r="H135" s="27"/>
+      <c r="F135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="J135" s="26"/>
       <c r="L135" s="6"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -3504,7 +3608,9 @@
       <c r="C136" t="s">
         <v>161</v>
       </c>
+      <c r="F136" s="26"/>
       <c r="H136" s="26"/>
+      <c r="J136" s="26"/>
       <c r="L136" s="6"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -3514,6 +3620,9 @@
       <c r="C137" t="s">
         <v>110</v>
       </c>
+      <c r="F137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="J137" s="26"/>
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -3523,6 +3632,9 @@
       <c r="C138" t="s">
         <v>162</v>
       </c>
+      <c r="F138" s="36"/>
+      <c r="H138" s="26"/>
+      <c r="J138" s="26"/>
       <c r="L138" s="6"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -3532,6 +3644,9 @@
       <c r="C139" t="s">
         <v>165</v>
       </c>
+      <c r="F139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="J139" s="26"/>
       <c r="L139" s="6"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -3559,7 +3674,9 @@
       <c r="C142" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="F142" s="26"/>
       <c r="H142" s="26"/>
+      <c r="J142" s="26"/>
       <c r="L142" s="6"/>
     </row>
     <row r="143" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3606,6 +3723,9 @@
       <c r="C145" s="8" t="s">
         <v>110</v>
       </c>
+      <c r="F145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="J145" s="26"/>
       <c r="L145" s="6"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -3615,6 +3735,9 @@
       <c r="C146" s="8" t="s">
         <v>162</v>
       </c>
+      <c r="F146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="J146" s="26"/>
       <c r="L146" s="6"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -3624,6 +3747,9 @@
       <c r="C147" s="8" t="s">
         <v>117</v>
       </c>
+      <c r="F147" s="26"/>
+      <c r="H147" s="26"/>
+      <c r="J147" s="26"/>
       <c r="L147" s="6"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -3642,6 +3768,9 @@
       <c r="C149" s="8" t="s">
         <v>118</v>
       </c>
+      <c r="F149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="J149" s="26"/>
       <c r="L149" s="6"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3707,6 +3836,9 @@
       <c r="C153" t="s">
         <v>117</v>
       </c>
+      <c r="F153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="J153" s="26"/>
       <c r="L153" s="6"/>
     </row>
     <row r="154" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3831,7 +3963,9 @@
       <c r="C162" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="F162" s="26"/>
       <c r="H162" s="26"/>
+      <c r="J162" s="26"/>
       <c r="L162" s="6"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -3841,7 +3975,9 @@
       <c r="C163" s="8" t="s">
         <v>191</v>
       </c>
+      <c r="F163" s="26"/>
       <c r="H163" s="26"/>
+      <c r="J163" s="26"/>
       <c r="L163" s="6"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -3851,6 +3987,9 @@
       <c r="C164" t="s">
         <v>165</v>
       </c>
+      <c r="F164" s="26"/>
+      <c r="H164" s="26"/>
+      <c r="J164" s="26"/>
       <c r="L164" s="6"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -3925,7 +4064,9 @@
       <c r="C170" t="s">
         <v>252</v>
       </c>
-      <c r="H170" s="27"/>
+      <c r="F170" s="26"/>
+      <c r="H170" s="26"/>
+      <c r="J170" s="26"/>
       <c r="L170" s="6"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -3935,7 +4076,7 @@
       <c r="C171" t="s">
         <v>253</v>
       </c>
-      <c r="H171" s="27"/>
+      <c r="H171" s="36"/>
       <c r="L171" s="6"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -3979,7 +4120,9 @@
       <c r="C175" t="s">
         <v>254</v>
       </c>
+      <c r="F175" s="26"/>
       <c r="H175" s="26"/>
+      <c r="J175" s="26"/>
       <c r="L175" s="6"/>
     </row>
     <row r="176" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3989,7 +4132,9 @@
       <c r="C176" t="s">
         <v>255</v>
       </c>
+      <c r="F176" s="26"/>
       <c r="H176" s="26"/>
+      <c r="J176" s="26"/>
       <c r="L176" s="6"/>
     </row>
     <row r="177" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
